--- a/streetstat/assets/report/report.xlsx
+++ b/streetstat/assets/report/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>621</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -487,19 +487,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>622</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -507,19 +507,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>623</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -527,19 +527,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -547,21 +547,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>625</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/streetstat/assets/report/report.xlsx
+++ b/streetstat/assets/report/report.xlsx
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -487,19 +487,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -507,19 +507,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -527,19 +527,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -547,19 +547,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -567,19 +567,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>

--- a/streetstat/assets/report/report.xlsx
+++ b/streetstat/assets/report/report.xlsx
@@ -467,56 +467,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -527,16 +527,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>

--- a/streetstat/assets/report/report.xlsx
+++ b/streetstat/assets/report/report.xlsx
@@ -467,36 +467,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -507,16 +507,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -527,36 +527,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>

--- a/streetstat/assets/report/report.xlsx
+++ b/streetstat/assets/report/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,145 +444,53 @@
           <t>person</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>car</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>motorcycle</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bus</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/streetstat/assets/report/report.xlsx
+++ b/streetstat/assets/report/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,53 +444,145 @@
           <t>person</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>motorcycle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36</v>
+        <v>545</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37</v>
+        <v>550</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38</v>
+        <v>555</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39</v>
+        <v>560</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40</v>
+        <v>565</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41</v>
+        <v>570</v>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
